--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2249498.902839873</v>
+        <v>2357649.995754168</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9463640.409733664</v>
+        <v>9469683.420320921</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>216.2092575368565</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>259.3913313741274</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.1610657433827</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>196.4017961483597</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>259.0065181712197</v>
+        <v>294.1424629382092</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>152.3725294351571</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7691584824239</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>42.78734947751052</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.192073768263203</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>96.81697959500558</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>87.73390848162707</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>186.1851504080588</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>213.9987150475857</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>111.5361117049702</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8253826161908883</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833814</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>132.8121873168124</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012837</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>175.1167795127591</v>
       </c>
       <c r="T25" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187882</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>15.7604594243907</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.98993057842264</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>199.0091315818001</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>107.1685137621111</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>30.06830131405788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>31.39650288673342</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>112.6849016609949</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>20.25102067617261</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,16 +3948,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>15.51491006411133</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.346298904865</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4364,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2343.946138968987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2343.946138968987</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>2343.946138968987</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y2" t="n">
-        <v>2343.946138968987</v>
+        <v>1926.862124306624</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014357</v>
+        <v>607.1380332666176</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>970.4000522258377</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1344.811132031107</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1055.692794534945</v>
       </c>
       <c r="V4" t="n">
-        <v>1438.060467399387</v>
+        <v>1055.692794534945</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>766.2756244979845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>538.2860735999672</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1432.831501090108</v>
+        <v>1838.755147556638</v>
       </c>
       <c r="C5" t="n">
-        <v>1063.868984149696</v>
+        <v>1469.792630616227</v>
       </c>
       <c r="D5" t="n">
-        <v>705.6032855429455</v>
+        <v>1111.526932009476</v>
       </c>
       <c r="E5" t="n">
-        <v>319.8150329447013</v>
+        <v>725.7386794112319</v>
       </c>
       <c r="F5" t="n">
-        <v>312.8695321954978</v>
+        <v>718.7931786620285</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.431341154229</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>979.3205878948403</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="C7" t="n">
-        <v>810.3844049669334</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="D7" t="n">
-        <v>660.2677655545976</v>
+        <v>353.897330598595</v>
       </c>
       <c r="E7" t="n">
-        <v>512.3546719722045</v>
+        <v>353.897330598595</v>
       </c>
       <c r="F7" t="n">
-        <v>365.4647244742941</v>
+        <v>353.897330598595</v>
       </c>
       <c r="G7" t="n">
-        <v>197.4782597825727</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W7" t="n">
-        <v>1381.76163186861</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="X7" t="n">
-        <v>1381.76163186861</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="Y7" t="n">
-        <v>1160.96905272508</v>
+        <v>504.0139700109307</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.730933054507</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="C8" t="n">
-        <v>1306.768416114095</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D8" t="n">
-        <v>948.5027175073449</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>562.7144649091006</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>151.728560119493</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2560.125112472616</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>2560.125112472616</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2306.544051736796</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>1975.481164393226</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>1622.712509123111</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="Y8" t="n">
-        <v>2062.330773118629</v>
+        <v>1249.246750862032</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1538.651191190653</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1538.651191190653</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1315.672710385388</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1315.672710385388</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1315.672710385388</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1315.672710385388</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5039,10 +5041,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>2808.971891347484</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>3406.350378974036</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="13">
@@ -5173,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.8230468926974</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5230,19 +5232,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X13" t="n">
-        <v>1023.264090866467</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y13" t="n">
-        <v>802.4715117229372</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5361,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>94.65038286230612</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5713,10 +5715,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3610.463413652314</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3382.473862754297</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2203.031743961183</v>
       </c>
       <c r="T25" t="n">
-        <v>2333.297989183966</v>
+        <v>1983.430278984124</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1694.355052328322</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1439.670564122435</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1150.253394085474</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>922.2638431874569</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>701.4712640439268</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6205,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118214</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289435</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>3314.305816915986</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>3941.903780470593</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>4493.813510709881</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>4493.813510709881</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>3044.370838283062</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>2875.434655355155</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>2725.31801594282</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>2577.404922360427</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>4218.903091397697</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>3964.21860319181</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>3674.801433154849</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>3446.811882256832</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>3226.019303113302</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.955258982919</v>
+        <v>3027.428036214346</v>
       </c>
       <c r="C31" t="n">
-        <v>889.0190760550122</v>
+        <v>2858.491853286439</v>
       </c>
       <c r="D31" t="n">
-        <v>738.9024366426764</v>
+        <v>2708.375213874104</v>
       </c>
       <c r="E31" t="n">
-        <v>590.9893430602833</v>
+        <v>2708.375213874104</v>
       </c>
       <c r="F31" t="n">
-        <v>444.0993955623729</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="G31" t="n">
-        <v>276.9032962772529</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4020.311824498741</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>3765.627336292854</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.385853854706</v>
+        <v>3476.210166255893</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.396302956689</v>
+        <v>3248.220615357876</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.603723813159</v>
+        <v>3027.428036214346</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2490.32382148308</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>2490.32382148308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2271.666355830531</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2052.064890853472</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.1492342949674</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C37" t="n">
-        <v>813.2130513670605</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>663.0964119547248</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>515.1833183723317</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,16 +7177,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>4435.461999481584</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>4435.461999481584</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>199.7516311504066</v>
+        <v>14.25823202432775</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>60.50016306149558</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>198.4505659076171</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>39.52450498097835</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>38.13892827624232</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>68.29586847696709</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393071</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>153.7108110197786</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>5.909506488885512</v>
       </c>
       <c r="T25" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>129.6605885985406</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>87.17534280744403</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>73.85777223953347</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>115.3527467088734</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>194.3131525023037</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>54.56191943763298</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>146.9958004224552</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>50.86033664601035</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>827751.1534794191</v>
+        <v>834287.273730597</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051416</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.251726441768452e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>4.59826626393723e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307092</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719576</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171973</v>
+        <v>7507.368461719594</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719658</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.0921642962</v>
+        <v>-725022.0921642964</v>
       </c>
       <c r="C6" t="n">
-        <v>389729.6914116237</v>
+        <v>389729.6914116241</v>
       </c>
       <c r="D6" t="n">
-        <v>228525.8431634101</v>
+        <v>389729.6914116236</v>
       </c>
       <c r="E6" t="n">
-        <v>171317.5896745225</v>
+        <v>-10755.39014266862</v>
       </c>
       <c r="F6" t="n">
+        <v>496730.0514818779</v>
+      </c>
+      <c r="G6" t="n">
+        <v>496730.0514818774</v>
+      </c>
+      <c r="H6" t="n">
+        <v>496730.0514818774</v>
+      </c>
+      <c r="I6" t="n">
+        <v>496730.0514818772</v>
+      </c>
+      <c r="J6" t="n">
+        <v>329124.8736718948</v>
+      </c>
+      <c r="K6" t="n">
+        <v>496730.0514818777</v>
+      </c>
+      <c r="L6" t="n">
         <v>496730.0514818776</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>364122.7577529509</v>
+      </c>
+      <c r="N6" t="n">
+        <v>496730.0514818777</v>
+      </c>
+      <c r="O6" t="n">
+        <v>496730.0514818775</v>
+      </c>
+      <c r="P6" t="n">
         <v>496730.0514818773</v>
-      </c>
-      <c r="H6" t="n">
-        <v>496730.0514818775</v>
-      </c>
-      <c r="I6" t="n">
-        <v>496730.0514818775</v>
-      </c>
-      <c r="J6" t="n">
-        <v>329124.873671895</v>
-      </c>
-      <c r="K6" t="n">
-        <v>496730.0514818773</v>
-      </c>
-      <c r="L6" t="n">
-        <v>448436.0814736868</v>
-      </c>
-      <c r="M6" t="n">
-        <v>411675.0235463657</v>
-      </c>
-      <c r="N6" t="n">
-        <v>496730.0514818772</v>
-      </c>
-      <c r="O6" t="n">
-        <v>496730.0514818776</v>
-      </c>
-      <c r="P6" t="n">
-        <v>496730.0514818776</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,19 +26804,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.747832829921537e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>111.5430009332784</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>126.8466072819261</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>33.58763025382925</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>55.73584717546831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>152.5411846017342</v>
+        <v>117.4052398347447</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13.93407060964711</v>
       </c>
       <c r="H7" t="n">
-        <v>2.482350672704939</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>368.1343761759429</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>121.2601416305312</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>4.740592824568054</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29241,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-6.713468745348355e-12</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29281,13 +29283,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.747832829921537e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.550759520796419e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576902</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>501.1621040024322</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32245,7 +32247,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159439</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>338.9915131655304</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>386.7287743289959</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>248.0319961154033</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33983,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>506.0735392239789</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>288.8958573929172</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639541</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34781,7 +34783,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882568</v>
+        <v>311.938592662178</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34796,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543695</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35033,7 +35035,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778161</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>369.8203919190989</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>199.0097390795089</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>244.1325298845514</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1905571410443</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>372.0991318096486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37859,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38029,13 +38031,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962379</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357649.995754168</v>
+        <v>2353512.838504016</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>189.7185254440884</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>259.3913313741274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>187.1610657433827</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>281.9841463166824</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>81.44657924866316</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>294.1424629382092</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>30.18061673893748</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.3725294351571</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>113.2782705203477</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.192073768263203</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>96.81697959500558</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>87.73390848162707</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>213.9987150475857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.5361117049702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>132.8121873168124</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012837</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>175.1167795127591</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187882</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.7604594243907</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>139.3687739767479</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>199.0091315818001</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>107.1685137621111</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>31.39650288673342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>112.6849016609949</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>20.25102067617261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.51491006411133</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1540.262284242502</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C2" t="n">
-        <v>1540.262284242502</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.862124306624</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666176</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258377</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.2860735999672</v>
+        <v>642.7634789947318</v>
       </c>
       <c r="C4" t="n">
-        <v>369.3498906720603</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1344.811132031107</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1055.692794534945</v>
+        <v>1052.401494722989</v>
       </c>
       <c r="V4" t="n">
-        <v>1055.692794534945</v>
+        <v>1052.401494722989</v>
       </c>
       <c r="W4" t="n">
-        <v>766.2756244979845</v>
+        <v>1052.401494722989</v>
       </c>
       <c r="X4" t="n">
-        <v>538.2860735999672</v>
+        <v>824.4119438249716</v>
       </c>
       <c r="Y4" t="n">
-        <v>538.2860735999672</v>
+        <v>824.4119438249716</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1838.755147556638</v>
+        <v>1671.539306344595</v>
       </c>
       <c r="C5" t="n">
-        <v>1469.792630616227</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>1111.526932009476</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E5" t="n">
-        <v>725.7386794112319</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7931786620285</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4582,37 +4582,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.755147556638</v>
+        <v>1753.808578312942</v>
       </c>
     </row>
     <row r="6">
@@ -4622,61 +4622,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297104</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M6" t="n">
-        <v>1420.589954256325</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
         <v>2004.520742047138</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.0139700109307</v>
+        <v>400.785080361718</v>
       </c>
       <c r="C7" t="n">
-        <v>504.0139700109307</v>
+        <v>231.8488974338111</v>
       </c>
       <c r="D7" t="n">
-        <v>353.897330598595</v>
+        <v>81.73225802147533</v>
       </c>
       <c r="E7" t="n">
-        <v>353.897330598595</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>353.897330598595</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478913</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W7" t="n">
-        <v>504.0139700109307</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X7" t="n">
-        <v>504.0139700109307</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="Y7" t="n">
-        <v>504.0139700109307</v>
+        <v>582.4335451919577</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.246750862032</v>
+        <v>1363.66924633713</v>
       </c>
       <c r="C8" t="n">
-        <v>880.2842339216199</v>
+        <v>994.7067293967186</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148695</v>
+        <v>636.4410307899682</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>250.6527781917239</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>243.7072774425205</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>232.0429312072134</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.125112472616</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.125112472616</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.544051736796</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.481164393226</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.712509123111</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.246750862032</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.246750862032</v>
+        <v>1363.66924633713</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100997</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1538.651191190653</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1538.651191190653</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1315.672710385388</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1315.672710385388</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1315.672710385388</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.672710385388</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.683159487371</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>1087.683159487371</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>2808.971891347484</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>3406.350378974036</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3777707160738</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>383.4415877881669</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1472.225535624822</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1182.808365587861</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8188146898436</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0262355463135</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3482.038612289356</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1211.329899359456</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3610.463413652314</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3382.473862754297</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3382.473862754297</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6074,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>701.4712640439268</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>532.5350811160199</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832656</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2203.031743961183</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.430278984124</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1694.355052328322</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1439.670564122435</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1150.253394085474</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>922.2638431874569</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>701.4712640439268</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2716.927329289435</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2716.927329289435</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3314.305816915986</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3941.903780470593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4493.813510709881</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4493.813510709881</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3044.370838283062</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.434655355155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2725.31801594282</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2577.404922360427</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376194</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053499</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4218.903091397697</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3964.21860319181</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.801433154849</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3446.811882256832</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3226.019303113302</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239597</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3027.428036214346</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>2858.491853286439</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.375213874104</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874104</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376194</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4020.311824498741</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>3765.627336292854</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>3476.210166255893</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>3248.220615357876</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>3027.428036214346</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2271.666355830531</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2052.064890853472</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7016,19 +7016,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.1865537761979</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2431.291457252875</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2431.291457252875</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1922.614765620015</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
-        <v>14.25823202432775</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>60.50016306149558</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>198.4505659076171</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>38.13892827624232</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.29586847696709</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>153.7108110197786</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>5.909506488885512</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>129.6605885985406</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.9259388694759423</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>87.17534280744403</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>73.85777223953347</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>194.3131525023037</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>54.56191943763298</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>146.9958004224552</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>50.86033664601035</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051416</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
@@ -26334,25 +26334,25 @@
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.251726441768452e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.59826626393723e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26438,13 +26438,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719576</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719594</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719658</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.0921642964</v>
+        <v>-725022.0921642961</v>
       </c>
       <c r="C6" t="n">
-        <v>389729.6914116241</v>
+        <v>389729.6914116237</v>
       </c>
       <c r="D6" t="n">
-        <v>389729.6914116236</v>
+        <v>389729.691411624</v>
       </c>
       <c r="E6" t="n">
-        <v>-10755.39014266862</v>
+        <v>-11102.76939702515</v>
       </c>
       <c r="F6" t="n">
-        <v>496730.0514818779</v>
+        <v>496382.6722275208</v>
       </c>
       <c r="G6" t="n">
-        <v>496730.0514818774</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="H6" t="n">
-        <v>496730.0514818774</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="I6" t="n">
-        <v>496730.0514818772</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="J6" t="n">
-        <v>329124.8736718948</v>
+        <v>328777.4944175381</v>
       </c>
       <c r="K6" t="n">
-        <v>496730.0514818777</v>
+        <v>496382.6722275203</v>
       </c>
       <c r="L6" t="n">
-        <v>496730.0514818776</v>
+        <v>496382.6722275202</v>
       </c>
       <c r="M6" t="n">
-        <v>364122.7577529509</v>
+        <v>363775.3784985936</v>
       </c>
       <c r="N6" t="n">
-        <v>496730.0514818777</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="O6" t="n">
-        <v>496730.0514818775</v>
+        <v>496382.6722275202</v>
       </c>
       <c r="P6" t="n">
-        <v>496730.0514818773</v>
+        <v>496382.6722275203</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.747832829921537e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,25 +26980,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>175.5543663269192</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>126.8466072819261</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33.58763025382925</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4.243007804518243</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>301.2872624148174</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>117.4052398347447</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>116.2533459076317</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>13.93407060964711</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>187.7402820420576</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>121.2601416305312</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.740592824568054</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193755</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29243,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-6.713468745348355e-12</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29283,13 +29283,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.747832829921537e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.550759520796419e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>501.1621040024322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>628.2482078836097</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>338.9915131655304</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>386.7287743289959</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>344.2757660550394</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>311.938592662178</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,13 +34792,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>451.6972626543695</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0158803980277</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>369.8203919190989</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>485.6519634391653</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>199.0097390795089</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>244.1325298845514</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>212.9340539717061</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37621,7 +37621,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2353512.838504016</v>
+        <v>2355273.368806803</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>189.7185254440884</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>189.7185254440879</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>111.0681683526616</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9841463166824</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.44657924866316</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>64.78910094740786</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>30.18061673893748</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>24.84860440602807</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>113.2782705203477</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>194.7516437108063</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483595</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172155</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>160.3243999861057</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>124.8808320771212</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>65.44930784064627</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>139.3687739767479</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>37.40501058443041</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>134.3542165280282</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702134</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>160.1597912951064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C2" t="n">
         <v>1992.424186004858</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2246.005246740678</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="Y2" t="n">
-        <v>2184.059060190806</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.7634789947318</v>
+        <v>648.272596813117</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>479.3364138852102</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>479.3364138852102</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>331.423320302817</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>331.423320302817</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>163.4368556110956</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.401494722989</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.401494722989</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.401494722989</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X4" t="n">
-        <v>824.4119438249716</v>
+        <v>829.9210616433568</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.4119438249716</v>
+        <v>829.9210616433568</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.539306344595</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>1395.542879706191</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>1009.754627107946</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>598.7687223183389</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>183.0639720426277</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4582,37 +4582,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583056</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312942</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312942</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1753.808578312942</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143502</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458221</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
         <v>1248.170551105042</v>
@@ -4664,19 +4664,19 @@
         <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710447</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
         <v>2004.520742047138</v>
@@ -4685,10 +4685,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400.785080361718</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>231.8488974338111</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>81.73225802147533</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800313</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
         <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372449</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354878</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X7" t="n">
-        <v>803.2261243354878</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>582.4335451919577</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.66924633713</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="C8" t="n">
-        <v>994.7067293967186</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D8" t="n">
-        <v>636.4410307899682</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>250.6527781917239</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>243.7072774425205</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>232.0429312072134</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>2365.620496369037</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312942</v>
+        <v>2012.851841098923</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312942</v>
+        <v>1639.386082837843</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.66924633713</v>
+        <v>1249.246750862032</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782906</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038293</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797695</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,19 +5296,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>443.7574521812149</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,25 +5767,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556308</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>483.8760050556308</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>316.6799057705107</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2342.134540858491</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2122.533075881433</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780647</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-2.540213379297602e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>19.50758019583159</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>40.6433062151476</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>80.9846548059229</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9259388694759423</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>143.6212754172142</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>83.05123379926005</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>106.0841272570749</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051416</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675046</v>
@@ -26331,31 +26331,31 @@
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245454</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719596</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719609</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26447,7 +26447,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.0921642961</v>
+        <v>-725022.0921642958</v>
       </c>
       <c r="C6" t="n">
         <v>389729.6914116237</v>
       </c>
       <c r="D6" t="n">
-        <v>389729.691411624</v>
+        <v>389729.6914116236</v>
       </c>
       <c r="E6" t="n">
-        <v>-11102.76939702515</v>
+        <v>-10790.12806810408</v>
       </c>
       <c r="F6" t="n">
-        <v>496382.6722275208</v>
+        <v>496695.3135564422</v>
       </c>
       <c r="G6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="H6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.3135564415</v>
       </c>
       <c r="I6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.313556442</v>
       </c>
       <c r="J6" t="n">
-        <v>328777.4944175381</v>
+        <v>329090.1357464591</v>
       </c>
       <c r="K6" t="n">
-        <v>496382.6722275203</v>
+        <v>496695.3135564415</v>
       </c>
       <c r="L6" t="n">
-        <v>496382.6722275202</v>
+        <v>496695.3135564422</v>
       </c>
       <c r="M6" t="n">
-        <v>363775.3784985936</v>
+        <v>364088.0198275148</v>
       </c>
       <c r="N6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.3135564418</v>
       </c>
       <c r="O6" t="n">
-        <v>496382.6722275202</v>
+        <v>496695.3135564423</v>
       </c>
       <c r="P6" t="n">
-        <v>496382.6722275203</v>
+        <v>496695.3135564422</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>175.5543663269192</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>16.93965953614583</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>36.18334080246727</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>4.243007804518243</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.2872624148174</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>236.2294516149975</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>116.2533459076317</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>261.6743939305629</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>187.7402820420576</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>133.0006147593286</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546854</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193755</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215496</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294817</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
